--- a/SONAR_TARGET_ILC.xlsx
+++ b/SONAR_TARGET_ILC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://transrisk-my.sharepoint.com/personal/rgrote_freightwaves_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="396" documentId="8_{EFCEF33C-F633-4C30-AC08-A44A0820F2F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95D79B88-CA01-4B5A-8490-1B6EE9809971}"/>
+  <xr:revisionPtr revIDLastSave="409" documentId="8_{EFCEF33C-F633-4C30-AC08-A44A0820F2F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{664654F2-F637-47F3-B21B-3C4099B4A7A1}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="820" firstSheet="1" activeTab="2" xr2:uid="{3DA5B3A9-571A-4CBC-9992-CDF9BD50DCDF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="820" activeTab="2" xr2:uid="{3DA5B3A9-571A-4CBC-9992-CDF9BD50DCDF}"/>
   </bookViews>
   <sheets>
     <sheet name="Target_DCs" sheetId="2" r:id="rId1"/>
@@ -1598,7 +1598,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07CC452A-DDF5-49C7-84DC-7525D4437A6F}">
   <dimension ref="A1:AK8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1634,7 +1636,7 @@
         <v>95</v>
       </c>
       <c r="D2" s="5">
-        <v>-0.15</v>
+        <v>-0.2</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -1681,7 +1683,7 @@
         <v>95</v>
       </c>
       <c r="D3" s="5">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -1822,7 +1824,7 @@
         <v>96</v>
       </c>
       <c r="D6" s="5">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -1940,7 +1942,7 @@
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1998,7 +2000,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!C2
 +Index_Weights!$D$5*Index_OTVI!C2
 +Index_Weights!$D$6*Index_OTRI!C2)</f>
-        <v>-0.21995086620540166</v>
+        <v>-0.22791611325092093</v>
       </c>
       <c r="D2" s="10">
         <f>(
@@ -2007,7 +2009,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!D2
 +Index_Weights!$D$5*Index_OTVI!D2
 +Index_Weights!$D$6*Index_OTRI!D2)</f>
-        <v>0.36955676372372104</v>
+        <v>0.29007225425730532</v>
       </c>
       <c r="E2" s="10">
         <f>(
@@ -2016,7 +2018,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!E2
 +Index_Weights!$D$5*Index_OTVI!E2
 +Index_Weights!$D$6*Index_OTRI!E2)</f>
-        <v>0.13966069592070043</v>
+        <v>0.14958037661005263</v>
       </c>
       <c r="F2" s="10">
         <f>(
@@ -2025,7 +2027,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!F2
 +Index_Weights!$D$5*Index_OTVI!F2
 +Index_Weights!$D$6*Index_OTRI!F2)</f>
-        <v>-0.30898257803081053</v>
+        <v>-0.29228732370232868</v>
       </c>
       <c r="G2" s="10">
         <f>(
@@ -2034,7 +2036,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!G2
 +Index_Weights!$D$5*Index_OTVI!G2
 +Index_Weights!$D$6*Index_OTRI!G2)</f>
-        <v>-0.20802013511420342</v>
+        <v>-0.1763249446607166</v>
       </c>
       <c r="H2" s="10">
         <f>(
@@ -2043,7 +2045,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!H2
 +Index_Weights!$D$5*Index_OTVI!H2
 +Index_Weights!$D$6*Index_OTRI!H2)</f>
-        <v>-1.7683261105562398E-2</v>
+        <v>1.8943136973036422E-2</v>
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
@@ -2067,7 +2069,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!C3
 +Index_Weights!$D$5*Index_OTVI!C3
 +Index_Weights!$D$6*Index_OTRI!C3)</f>
-        <v>-0.33373850552395329</v>
+        <v>-0.30255065793160918</v>
       </c>
       <c r="D3" s="10">
         <f>(
@@ -2076,7 +2078,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!D3
 +Index_Weights!$D$5*Index_OTVI!D3
 +Index_Weights!$D$6*Index_OTRI!D3)</f>
-        <v>1.4703300145438802</v>
+        <v>1.0192458708848808</v>
       </c>
       <c r="E3" s="10">
         <f>(
@@ -2085,7 +2087,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!E3
 +Index_Weights!$D$5*Index_OTVI!E3
 +Index_Weights!$D$6*Index_OTRI!E3)</f>
-        <v>0.19565555452832539</v>
+        <v>0.19517974446494749</v>
       </c>
       <c r="F3" s="10">
         <f>(
@@ -2094,7 +2096,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!F3
 +Index_Weights!$D$5*Index_OTVI!F3
 +Index_Weights!$D$6*Index_OTRI!F3)</f>
-        <v>-0.36770255199005131</v>
+        <v>-0.33165812154754881</v>
       </c>
       <c r="G3" s="10">
         <f>(
@@ -2103,7 +2105,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!G3
 +Index_Weights!$D$5*Index_OTVI!G3
 +Index_Weights!$D$6*Index_OTRI!G3)</f>
-        <v>-0.17778725763358705</v>
+        <v>-0.16417583835042751</v>
       </c>
       <c r="H3" s="10">
         <f>(
@@ -2112,7 +2114,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!H3
 +Index_Weights!$D$5*Index_OTVI!H3
 +Index_Weights!$D$6*Index_OTRI!H3)</f>
-        <v>0.20126994129554662</v>
+        <v>0.17058596345566096</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -2136,7 +2138,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!C4
 +Index_Weights!$D$5*Index_OTVI!C4
 +Index_Weights!$D$6*Index_OTRI!C4)</f>
-        <v>-0.33081939750495803</v>
+        <v>-0.31185145187222263</v>
       </c>
       <c r="D4" s="10">
         <f>(
@@ -2145,7 +2147,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!D4
 +Index_Weights!$D$5*Index_OTVI!D4
 +Index_Weights!$D$6*Index_OTRI!D4)</f>
-        <v>1.200912844701588</v>
+        <v>0.85822238964320119</v>
       </c>
       <c r="E4" s="10">
         <f>(
@@ -2154,7 +2156,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!E4
 +Index_Weights!$D$5*Index_OTVI!E4
 +Index_Weights!$D$6*Index_OTRI!E4)</f>
-        <v>0.20825539903679152</v>
+        <v>0.20122896318929012</v>
       </c>
       <c r="F4" s="10">
         <f>(
@@ -2163,7 +2165,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!F4
 +Index_Weights!$D$5*Index_OTVI!F4
 +Index_Weights!$D$6*Index_OTRI!F4)</f>
-        <v>-0.29517668323028562</v>
+        <v>-0.27922970199044084</v>
       </c>
       <c r="G4" s="10">
         <f>(
@@ -2172,7 +2174,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!G4
 +Index_Weights!$D$5*Index_OTVI!G4
 +Index_Weights!$D$6*Index_OTRI!G4)</f>
-        <v>-0.32419272091953288</v>
+        <v>-0.26638838674357701</v>
       </c>
       <c r="H4" s="10">
         <f>(
@@ -2181,7 +2183,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!H4
 +Index_Weights!$D$5*Index_OTVI!H4
 +Index_Weights!$D$6*Index_OTRI!H4)</f>
-        <v>-1.3619025034650709E-2</v>
+        <v>1.0180704508652969E-2</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
@@ -2205,7 +2207,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!C5
 +Index_Weights!$D$5*Index_OTVI!C5
 +Index_Weights!$D$6*Index_OTRI!C5)</f>
-        <v>-0.31157468530485127</v>
+        <v>-0.28840948225660512</v>
       </c>
       <c r="D5" s="10">
         <f>(
@@ -2214,7 +2216,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!D5
 +Index_Weights!$D$5*Index_OTVI!D5
 +Index_Weights!$D$6*Index_OTRI!D5)</f>
-        <v>1.1092954112226352</v>
+        <v>0.77585818978638033</v>
       </c>
       <c r="E5" s="10">
         <f>(
@@ -2223,7 +2225,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!E5
 +Index_Weights!$D$5*Index_OTVI!E5
 +Index_Weights!$D$6*Index_OTRI!E5)</f>
-        <v>0.12592509443481237</v>
+        <v>0.13912079519858417</v>
       </c>
       <c r="F5" s="10">
         <f>(
@@ -2232,7 +2234,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!F5
 +Index_Weights!$D$5*Index_OTVI!F5
 +Index_Weights!$D$6*Index_OTRI!F5)</f>
-        <v>-0.31977744159194066</v>
+        <v>-0.29466904141020445</v>
       </c>
       <c r="G5" s="10">
         <f>(
@@ -2241,7 +2243,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!G5
 +Index_Weights!$D$5*Index_OTVI!G5
 +Index_Weights!$D$6*Index_OTRI!G5)</f>
-        <v>-0.26466622574981252</v>
+        <v>-0.21425524737384349</v>
       </c>
       <c r="H5" s="10">
         <f>(
@@ -2250,7 +2252,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!H5
 +Index_Weights!$D$5*Index_OTVI!H5
 +Index_Weights!$D$6*Index_OTRI!H5)</f>
-        <v>0.12090168011847552</v>
+        <v>0.11282534280683726</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
@@ -2274,7 +2276,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!C6
 +Index_Weights!$D$5*Index_OTVI!C6
 +Index_Weights!$D$6*Index_OTRI!C6)</f>
-        <v>-0.35586306113755767</v>
+        <v>-0.3348243345867008</v>
       </c>
       <c r="D6" s="10">
         <f>(
@@ -2283,7 +2285,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!D6
 +Index_Weights!$D$5*Index_OTVI!D6
 +Index_Weights!$D$6*Index_OTRI!D6)</f>
-        <v>0.49986453165614236</v>
+        <v>0.36596749126941858</v>
       </c>
       <c r="E6" s="10">
         <f>(
@@ -2292,7 +2294,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!E6
 +Index_Weights!$D$5*Index_OTVI!E6
 +Index_Weights!$D$6*Index_OTRI!E6)</f>
-        <v>0.52783663465839803</v>
+        <v>0.43865018774487041</v>
       </c>
       <c r="F6" s="10">
         <f>(
@@ -2301,7 +2303,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!F6
 +Index_Weights!$D$5*Index_OTVI!F6
 +Index_Weights!$D$6*Index_OTRI!F6)</f>
-        <v>-0.38717451082146409</v>
+        <v>-0.35246772762942047</v>
       </c>
       <c r="G6" s="10">
         <f>(
@@ -2310,7 +2312,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!G6
 +Index_Weights!$D$5*Index_OTVI!G6
 +Index_Weights!$D$6*Index_OTRI!G6)</f>
-        <v>-0.29370752964145497</v>
+        <v>-0.23770047565971747</v>
       </c>
       <c r="H6" s="10">
         <f>(
@@ -2319,7 +2321,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!H6
 +Index_Weights!$D$5*Index_OTVI!H6
 +Index_Weights!$D$6*Index_OTRI!H6)</f>
-        <v>0.35125886838410569</v>
+        <v>0.26325746352504642</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
@@ -2343,7 +2345,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!C7
 +Index_Weights!$D$5*Index_OTVI!C7
 +Index_Weights!$D$6*Index_OTRI!C7)</f>
-        <v>-0.3284834835269928</v>
+        <v>-0.30955912467610897</v>
       </c>
       <c r="D7" s="10">
         <f>(
@@ -2352,7 +2354,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!D7
 +Index_Weights!$D$5*Index_OTVI!D7
 +Index_Weights!$D$6*Index_OTRI!D7)</f>
-        <v>0.35517177164736091</v>
+        <v>0.27913669672245889</v>
       </c>
       <c r="E7" s="10">
         <f>(
@@ -2361,7 +2363,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!E7
 +Index_Weights!$D$5*Index_OTVI!E7
 +Index_Weights!$D$6*Index_OTRI!E7)</f>
-        <v>0.42898901314646309</v>
+        <v>0.35657076681762401</v>
       </c>
       <c r="F7" s="10">
         <f>(
@@ -2370,7 +2372,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!F7
 +Index_Weights!$D$5*Index_OTVI!F7
 +Index_Weights!$D$6*Index_OTRI!F7)</f>
-        <v>-0.30848567168660596</v>
+        <v>-0.29016683382374325</v>
       </c>
       <c r="G7" s="10">
         <f>(
@@ -2379,7 +2381,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!G7
 +Index_Weights!$D$5*Index_OTVI!G7
 +Index_Weights!$D$6*Index_OTRI!G7)</f>
-        <v>-0.25136374503717895</v>
+        <v>-0.20899057357561487</v>
       </c>
       <c r="H7" s="10">
         <f>(
@@ -2388,7 +2390,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!H7
 +Index_Weights!$D$5*Index_OTVI!H7
 +Index_Weights!$D$6*Index_OTRI!H7)</f>
-        <v>0.15987462309101499</v>
+        <v>0.13489326271897642</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
@@ -2412,7 +2414,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!C8
 +Index_Weights!$D$5*Index_OTVI!C8
 +Index_Weights!$D$6*Index_OTRI!C8)</f>
-        <v>-0.24754603706569761</v>
+        <v>-0.23414477331475581</v>
       </c>
       <c r="D8" s="10">
         <f>(
@@ -2421,7 +2423,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!D8
 +Index_Weights!$D$5*Index_OTVI!D8
 +Index_Weights!$D$6*Index_OTRI!D8)</f>
-        <v>0.43673943917467983</v>
+        <v>0.31948699930530233</v>
       </c>
       <c r="E8" s="10">
         <f>(
@@ -2430,7 +2432,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!E8
 +Index_Weights!$D$5*Index_OTVI!E8
 +Index_Weights!$D$6*Index_OTRI!E8)</f>
-        <v>0.21332313323153324</v>
+        <v>0.19276197494192782</v>
       </c>
       <c r="F8" s="10">
         <f>(
@@ -2439,7 +2441,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!F8
 +Index_Weights!$D$5*Index_OTVI!F8
 +Index_Weights!$D$6*Index_OTRI!F8)</f>
-        <v>-0.25746629792775722</v>
+        <v>-0.25278328658998139</v>
       </c>
       <c r="G8" s="10">
         <f>(
@@ -2448,7 +2450,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!G8
 +Index_Weights!$D$5*Index_OTVI!G8
 +Index_Weights!$D$6*Index_OTRI!G8)</f>
-        <v>-0.25309274610858523</v>
+        <v>-0.19807443131982833</v>
       </c>
       <c r="H8" s="10">
         <f>(
@@ -2457,7 +2459,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!H8
 +Index_Weights!$D$5*Index_OTVI!H8
 +Index_Weights!$D$6*Index_OTRI!H8)</f>
-        <v>0.38335904843528601</v>
+        <v>0.28512301551650887</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
@@ -2481,7 +2483,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!C9
 +Index_Weights!$D$5*Index_OTVI!C9
 +Index_Weights!$D$6*Index_OTRI!C9)</f>
-        <v>-0.36227658153520481</v>
+        <v>-0.33814500270918846</v>
       </c>
       <c r="D9" s="10">
         <f>(
@@ -2490,7 +2492,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!D9
 +Index_Weights!$D$5*Index_OTVI!D9
 +Index_Weights!$D$6*Index_OTRI!D9)</f>
-        <v>0.34281799926397016</v>
+        <v>0.27341532853768308</v>
       </c>
       <c r="E9" s="10">
         <f>(
@@ -2499,7 +2501,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!E9
 +Index_Weights!$D$5*Index_OTVI!E9
 +Index_Weights!$D$6*Index_OTRI!E9)</f>
-        <v>0.3785779220121499</v>
+        <v>0.32573178884105203</v>
       </c>
       <c r="F9" s="10">
         <f>(
@@ -2508,7 +2510,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!F9
 +Index_Weights!$D$5*Index_OTVI!F9
 +Index_Weights!$D$6*Index_OTRI!F9)</f>
-        <v>-0.2823594254057602</v>
+        <v>-0.27051263886495686</v>
       </c>
       <c r="G9" s="10">
         <f>(
@@ -2517,7 +2519,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!G9
 +Index_Weights!$D$5*Index_OTVI!G9
 +Index_Weights!$D$6*Index_OTRI!G9)</f>
-        <v>-0.30295548927062427</v>
+        <v>-0.24881547359505124</v>
       </c>
       <c r="H9" s="10">
         <f>(
@@ -2526,7 +2528,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!H9
 +Index_Weights!$D$5*Index_OTVI!H9
 +Index_Weights!$D$6*Index_OTRI!H9)</f>
-        <v>0.15537074764129585</v>
+        <v>0.12771860195685722</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
@@ -2550,7 +2552,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!C10
 +Index_Weights!$D$5*Index_OTVI!C10
 +Index_Weights!$D$6*Index_OTRI!C10)</f>
-        <v>-0.41484613751999588</v>
+        <v>-0.38274969408355036</v>
       </c>
       <c r="D10" s="10">
         <f>(
@@ -2559,7 +2561,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!D10
 +Index_Weights!$D$5*Index_OTVI!D10
 +Index_Weights!$D$6*Index_OTRI!D10)</f>
-        <v>1.1104564394704117</v>
+        <v>0.79102224137492505</v>
       </c>
       <c r="E10" s="10">
         <f>(
@@ -2568,7 +2570,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!E10
 +Index_Weights!$D$5*Index_OTVI!E10
 +Index_Weights!$D$6*Index_OTRI!E10)</f>
-        <v>0.29936579989675716</v>
+        <v>0.28051478742320413</v>
       </c>
       <c r="F10" s="10">
         <f>(
@@ -2577,7 +2579,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!F10
 +Index_Weights!$D$5*Index_OTVI!F10
 +Index_Weights!$D$6*Index_OTRI!F10)</f>
-        <v>-0.29933195619875608</v>
+        <v>-0.28528337546439109</v>
       </c>
       <c r="G10" s="10">
         <f>(
@@ -2586,7 +2588,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!G10
 +Index_Weights!$D$5*Index_OTVI!G10
 +Index_Weights!$D$6*Index_OTRI!G10)</f>
-        <v>-0.28052377177616317</v>
+        <v>-0.23898779798292824</v>
       </c>
       <c r="H10" s="10">
         <f>(
@@ -2595,7 +2597,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!H10
 +Index_Weights!$D$5*Index_OTVI!H10
 +Index_Weights!$D$6*Index_OTRI!H10)</f>
-        <v>0.33356425435198256</v>
+        <v>0.25813520846778182</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
@@ -2619,7 +2621,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!C11
 +Index_Weights!$D$5*Index_OTVI!C11
 +Index_Weights!$D$6*Index_OTRI!C11)</f>
-        <v>-0.36411098077143134</v>
+        <v>-0.33442038234258897</v>
       </c>
       <c r="D11" s="10">
         <f>(
@@ -2628,7 +2630,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!D11
 +Index_Weights!$D$5*Index_OTVI!D11
 +Index_Weights!$D$6*Index_OTRI!D11)</f>
-        <v>0.90788131703054153</v>
+        <v>0.65658809567415233</v>
       </c>
       <c r="E11" s="10">
         <f>(
@@ -2637,7 +2639,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!E11
 +Index_Weights!$D$5*Index_OTVI!E11
 +Index_Weights!$D$6*Index_OTRI!E11)</f>
-        <v>0.3355274255529237</v>
+        <v>0.29557426146341265</v>
       </c>
       <c r="F11" s="10">
         <f>(
@@ -2646,7 +2648,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!F11
 +Index_Weights!$D$5*Index_OTVI!F11
 +Index_Weights!$D$6*Index_OTRI!F11)</f>
-        <v>-0.31876647766588767</v>
+        <v>-0.29366690587266214</v>
       </c>
       <c r="G11" s="10">
         <f>(
@@ -2655,7 +2657,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!G11
 +Index_Weights!$D$5*Index_OTVI!G11
 +Index_Weights!$D$6*Index_OTRI!G11)</f>
-        <v>-0.27705013252566429</v>
+        <v>-0.22553145959464171</v>
       </c>
       <c r="H11" s="10">
         <f>(
@@ -2664,7 +2666,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!H11
 +Index_Weights!$D$5*Index_OTVI!H11
 +Index_Weights!$D$6*Index_OTRI!H11)</f>
-        <v>0.20566888568907099</v>
+        <v>0.16783388953768125</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
@@ -2688,7 +2690,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!C12
 +Index_Weights!$D$5*Index_OTVI!C12
 +Index_Weights!$D$6*Index_OTRI!C12)</f>
-        <v>-0.31094262673003253</v>
+        <v>-0.29188265616424619</v>
       </c>
       <c r="D12" s="10">
         <f>(
@@ -2697,7 +2699,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!D12
 +Index_Weights!$D$5*Index_OTVI!D12
 +Index_Weights!$D$6*Index_OTRI!D12)</f>
-        <v>0.75234644895266989</v>
+        <v>0.53122759759818527</v>
       </c>
       <c r="E12" s="10">
         <f>(
@@ -2706,7 +2708,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!E12
 +Index_Weights!$D$5*Index_OTVI!E12
 +Index_Weights!$D$6*Index_OTRI!E12)</f>
-        <v>0.22175908760524182</v>
+        <v>0.20725883117159472</v>
       </c>
       <c r="F12" s="10">
         <f>(
@@ -2715,7 +2717,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!F12
 +Index_Weights!$D$5*Index_OTVI!F12
 +Index_Weights!$D$6*Index_OTRI!F12)</f>
-        <v>-0.31199467074270976</v>
+        <v>-0.2867913823131697</v>
       </c>
       <c r="G12" s="10">
         <f>(
@@ -2724,7 +2726,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!G12
 +Index_Weights!$D$5*Index_OTVI!G12
 +Index_Weights!$D$6*Index_OTRI!G12)</f>
-        <v>-0.33933485797892671</v>
+        <v>-0.27802272774630898</v>
       </c>
       <c r="H12" s="10">
         <f>(
@@ -2733,7 +2735,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!H12
 +Index_Weights!$D$5*Index_OTVI!H12
 +Index_Weights!$D$6*Index_OTRI!H12)</f>
-        <v>0.47121223690075636</v>
+        <v>0.33244410765493315</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
@@ -2756,7 +2758,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!C13
 +Index_Weights!$D$5*Index_OTVI!C13
 +Index_Weights!$D$6*Index_OTRI!C13)</f>
-        <v>-0.38162919677859575</v>
+        <v>-0.35469605784374719</v>
       </c>
       <c r="D13" s="10">
         <f>(
@@ -2765,7 +2767,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!D13
 +Index_Weights!$D$5*Index_OTVI!D13
 +Index_Weights!$D$6*Index_OTRI!D13)</f>
-        <v>0.61402444986838622</v>
+        <v>0.45783253271835711</v>
       </c>
       <c r="E13" s="10">
         <f>(
@@ -2774,7 +2776,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!E13
 +Index_Weights!$D$5*Index_OTVI!E13
 +Index_Weights!$D$6*Index_OTRI!E13)</f>
-        <v>0.2802597038382979</v>
+        <v>0.25268338129585322</v>
       </c>
       <c r="F13" s="10">
         <f>(
@@ -2783,7 +2785,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!F13
 +Index_Weights!$D$5*Index_OTVI!F13
 +Index_Weights!$D$6*Index_OTRI!F13)</f>
-        <v>-0.30792239916516811</v>
+        <v>-0.29194580119390356</v>
       </c>
       <c r="G13" s="10">
         <f>(
@@ -2792,7 +2794,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!G13
 +Index_Weights!$D$5*Index_OTVI!G13
 +Index_Weights!$D$6*Index_OTRI!G13)</f>
-        <v>-0.3103136896296238</v>
+        <v>-0.24483265572817162</v>
       </c>
       <c r="H13" s="10">
         <f>(
@@ -2801,7 +2803,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!H13
 +Index_Weights!$D$5*Index_OTVI!H13
 +Index_Weights!$D$6*Index_OTRI!H13)</f>
-        <v>0.31497677607628016</v>
+        <v>0.23695749551874623</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
@@ -2824,7 +2826,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!C14
 +Index_Weights!$D$5*Index_OTVI!C14
 +Index_Weights!$D$6*Index_OTRI!C14)</f>
-        <v>-0.33835416206448843</v>
+        <v>-0.31704089603934626</v>
       </c>
       <c r="D14" s="10">
         <f>(
@@ -2833,7 +2835,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!D14
 +Index_Weights!$D$5*Index_OTVI!D14
 +Index_Weights!$D$6*Index_OTRI!D14)</f>
-        <v>0.36969818561447398</v>
+        <v>0.29432232337651565</v>
       </c>
       <c r="E14" s="10">
         <f>(
@@ -2842,7 +2844,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!E14
 +Index_Weights!$D$5*Index_OTVI!E14
 +Index_Weights!$D$6*Index_OTRI!E14)</f>
-        <v>0.28200169998727226</v>
+        <v>0.24902024979039827</v>
       </c>
       <c r="F14" s="10">
         <f>(
@@ -2851,7 +2853,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!F14
 +Index_Weights!$D$5*Index_OTVI!F14
 +Index_Weights!$D$6*Index_OTRI!F14)</f>
-        <v>-0.24641610885852255</v>
+        <v>-0.24629253183778088</v>
       </c>
       <c r="G14" s="10">
         <f>(
@@ -2860,7 +2862,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!G14
 +Index_Weights!$D$5*Index_OTVI!G14
 +Index_Weights!$D$6*Index_OTRI!G14)</f>
-        <v>-0.31740110434248431</v>
+        <v>-0.25859771849353946</v>
       </c>
       <c r="H14" s="10">
         <f>(
@@ -2869,7 +2871,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!H14
 +Index_Weights!$D$5*Index_OTVI!H14
 +Index_Weights!$D$6*Index_OTRI!H14)</f>
-        <v>-5.2102713275375245E-2</v>
+        <v>-1.0199316953341829E-2</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
@@ -2892,7 +2894,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!C15
 +Index_Weights!$D$5*Index_OTVI!C15
 +Index_Weights!$D$6*Index_OTRI!C15)</f>
-        <v>-0.26331476549602639</v>
+        <v>-0.24337633483986043</v>
       </c>
       <c r="D15" s="10">
         <f>(
@@ -2901,7 +2903,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!D15
 +Index_Weights!$D$5*Index_OTVI!D15
 +Index_Weights!$D$6*Index_OTRI!D15)</f>
-        <v>0.74670292940705807</v>
+        <v>0.55395031341961287</v>
       </c>
       <c r="E15" s="10">
         <f>(
@@ -2910,7 +2912,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!E15
 +Index_Weights!$D$5*Index_OTVI!E15
 +Index_Weights!$D$6*Index_OTRI!E15)</f>
-        <v>0.20698150242051211</v>
+        <v>0.20098747984357176</v>
       </c>
       <c r="F15" s="10">
         <f>(
@@ -2919,7 +2921,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!F15
 +Index_Weights!$D$5*Index_OTVI!F15
 +Index_Weights!$D$6*Index_OTRI!F15)</f>
-        <v>-0.31198639032052533</v>
+        <v>-0.28588935359939749</v>
       </c>
       <c r="G15" s="10">
         <f>(
@@ -2928,7 +2930,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!G15
 +Index_Weights!$D$5*Index_OTVI!G15
 +Index_Weights!$D$6*Index_OTRI!G15)</f>
-        <v>-0.22370339559063365</v>
+        <v>-0.16318389258598545</v>
       </c>
       <c r="H15" s="10">
         <f>(
@@ -2937,7 +2939,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!H15
 +Index_Weights!$D$5*Index_OTVI!H15
 +Index_Weights!$D$6*Index_OTRI!H15)</f>
-        <v>0.43408632345511156</v>
+        <v>0.31395317638115833</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
@@ -2960,7 +2962,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!C16
 +Index_Weights!$D$5*Index_OTVI!C16
 +Index_Weights!$D$6*Index_OTRI!C16)</f>
-        <v>-0.36202084050173144</v>
+        <v>-0.33415673133993717</v>
       </c>
       <c r="D16" s="10">
         <f>(
@@ -2969,7 +2971,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!D16
 +Index_Weights!$D$5*Index_OTVI!D16
 +Index_Weights!$D$6*Index_OTRI!D16)</f>
-        <v>0.69928893030404393</v>
+        <v>0.51832155089572163</v>
       </c>
       <c r="E16" s="10">
         <f>(
@@ -2978,7 +2980,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!E16
 +Index_Weights!$D$5*Index_OTVI!E16
 +Index_Weights!$D$6*Index_OTRI!E16)</f>
-        <v>0.21863973302346434</v>
+        <v>0.20599922203695561</v>
       </c>
       <c r="F16" s="10">
         <f>(
@@ -2987,7 +2989,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!F16
 +Index_Weights!$D$5*Index_OTVI!F16
 +Index_Weights!$D$6*Index_OTRI!F16)</f>
-        <v>-0.29149227280075019</v>
+        <v>-0.27943479937915672</v>
       </c>
       <c r="G16" s="10">
         <f>(
@@ -2996,7 +2998,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!G16
 +Index_Weights!$D$5*Index_OTVI!G16
 +Index_Weights!$D$6*Index_OTRI!G16)</f>
-        <v>-0.33670498322020814</v>
+        <v>-0.27134503208219485</v>
       </c>
       <c r="H16" s="10">
         <f>(
@@ -3005,7 +3007,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!H16
 +Index_Weights!$D$5*Index_OTVI!H16
 +Index_Weights!$D$6*Index_OTRI!H16)</f>
-        <v>0.13152960517080861</v>
+        <v>0.11547752749344337</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
@@ -3028,7 +3030,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!C17
 +Index_Weights!$D$5*Index_OTVI!C17
 +Index_Weights!$D$6*Index_OTRI!C17)</f>
-        <v>-0.29837238441879266</v>
+        <v>-0.29892280172056929</v>
       </c>
       <c r="D17" s="10">
         <f>(
@@ -3037,7 +3039,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!D17
 +Index_Weights!$D$5*Index_OTVI!D17
 +Index_Weights!$D$6*Index_OTRI!D17)</f>
-        <v>0.25834978261642527</v>
+        <v>0.22026193379384956</v>
       </c>
       <c r="E17" s="10">
         <f>(
@@ -3046,7 +3048,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!E17
 +Index_Weights!$D$5*Index_OTVI!E17
 +Index_Weights!$D$6*Index_OTRI!E17)</f>
-        <v>0.55231723389262577</v>
+        <v>0.46759484411391022</v>
       </c>
       <c r="F17" s="10">
         <f>(
@@ -3055,7 +3057,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!F17
 +Index_Weights!$D$5*Index_OTVI!F17
 +Index_Weights!$D$6*Index_OTRI!F17)</f>
-        <v>-0.2557794616386444</v>
+        <v>-0.25041107898681664</v>
       </c>
       <c r="G17" s="10">
         <f>(
@@ -3064,7 +3066,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!G17
 +Index_Weights!$D$5*Index_OTVI!G17
 +Index_Weights!$D$6*Index_OTRI!G17)</f>
-        <v>-0.3191828895283218</v>
+        <v>-0.26746284522921898</v>
       </c>
       <c r="H17" s="10">
         <f>(
@@ -3073,7 +3075,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!H17
 +Index_Weights!$D$5*Index_OTVI!H17
 +Index_Weights!$D$6*Index_OTRI!H17)</f>
-        <v>0.20498442237681638</v>
+        <v>0.15882231457275958</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
@@ -3096,7 +3098,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!C18
 +Index_Weights!$D$5*Index_OTVI!C18
 +Index_Weights!$D$6*Index_OTRI!C18)</f>
-        <v>-0.29120172461683591</v>
+        <v>-0.26857254259943986</v>
       </c>
       <c r="D18" s="10">
         <f>(
@@ -3105,7 +3107,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!D18
 +Index_Weights!$D$5*Index_OTVI!D18
 +Index_Weights!$D$6*Index_OTRI!D18)</f>
-        <v>1.0741498581915578</v>
+        <v>0.77213604986716122</v>
       </c>
       <c r="E18" s="10">
         <f>(
@@ -3114,7 +3116,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!E18
 +Index_Weights!$D$5*Index_OTVI!E18
 +Index_Weights!$D$6*Index_OTRI!E18)</f>
-        <v>0.15303832843718812</v>
+        <v>0.1565705393705776</v>
       </c>
       <c r="F18" s="10">
         <f>(
@@ -3123,7 +3125,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!F18
 +Index_Weights!$D$5*Index_OTVI!F18
 +Index_Weights!$D$6*Index_OTRI!F18)</f>
-        <v>-0.34250362221335739</v>
+        <v>-0.31457876066575136</v>
       </c>
       <c r="G18" s="10">
         <f>(
@@ -3132,7 +3134,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!G18
 +Index_Weights!$D$5*Index_OTVI!G18
 +Index_Weights!$D$6*Index_OTRI!G18)</f>
-        <v>-0.27492746870568741</v>
+        <v>-0.22728761804881642</v>
       </c>
       <c r="H18" s="10">
         <f>(
@@ -3141,7 +3143,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!H18
 +Index_Weights!$D$5*Index_OTVI!H18
 +Index_Weights!$D$6*Index_OTRI!H18)</f>
-        <v>0.22312453589725489</v>
+        <v>0.18205114738287287</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
@@ -3164,7 +3166,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!C19
 +Index_Weights!$D$5*Index_OTVI!C19
 +Index_Weights!$D$6*Index_OTRI!C19)</f>
-        <v>-0.37176250589755155</v>
+        <v>-0.33899461203848025</v>
       </c>
       <c r="D19" s="10">
         <f>(
@@ -3173,7 +3175,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!D19
 +Index_Weights!$D$5*Index_OTVI!D19
 +Index_Weights!$D$6*Index_OTRI!D19)</f>
-        <v>0.60563372123157899</v>
+        <v>0.44909709151340083</v>
       </c>
       <c r="E19" s="10">
         <f>(
@@ -3182,7 +3184,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!E19
 +Index_Weights!$D$5*Index_OTVI!E19
 +Index_Weights!$D$6*Index_OTRI!E19)</f>
-        <v>0.41203701027306372</v>
+        <v>0.36845190145656287</v>
       </c>
       <c r="F19" s="10">
         <f>(
@@ -3191,7 +3193,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!F19
 +Index_Weights!$D$5*Index_OTVI!F19
 +Index_Weights!$D$6*Index_OTRI!F19)</f>
-        <v>-0.33724305283363254</v>
+        <v>-0.3097667465786863</v>
       </c>
       <c r="G19" s="10">
         <f>(
@@ -3200,7 +3202,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!G19
 +Index_Weights!$D$5*Index_OTVI!G19
 +Index_Weights!$D$6*Index_OTRI!G19)</f>
-        <v>-0.28212402092429933</v>
+        <v>-0.22982835053925732</v>
       </c>
       <c r="H19" s="10">
         <f>(
@@ -3209,7 +3211,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!H19
 +Index_Weights!$D$5*Index_OTVI!H19
 +Index_Weights!$D$6*Index_OTRI!H19)</f>
-        <v>0.2107354372018222</v>
+        <v>0.17022058346768687</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
@@ -3232,7 +3234,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!C20
 +Index_Weights!$D$5*Index_OTVI!C20
 +Index_Weights!$D$6*Index_OTRI!C20)</f>
-        <v>-0.26354766811930197</v>
+        <v>-0.24807076365636263</v>
       </c>
       <c r="D20" s="10">
         <f>(
@@ -3241,7 +3243,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!D20
 +Index_Weights!$D$5*Index_OTVI!D20
 +Index_Weights!$D$6*Index_OTRI!D20)</f>
-        <v>0.53424859194155327</v>
+        <v>0.39420314929211897</v>
       </c>
       <c r="E20" s="10">
         <f>(
@@ -3250,7 +3252,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!E20
 +Index_Weights!$D$5*Index_OTVI!E20
 +Index_Weights!$D$6*Index_OTRI!E20)</f>
-        <v>0.3277770870210599</v>
+        <v>0.28249387910425994</v>
       </c>
       <c r="F20" s="10">
         <f>(
@@ -3259,7 +3261,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!F20
 +Index_Weights!$D$5*Index_OTVI!F20
 +Index_Weights!$D$6*Index_OTRI!F20)</f>
-        <v>-0.29977893924769461</v>
+        <v>-0.28172378442916812</v>
       </c>
       <c r="G20" s="10">
         <f>(
@@ -3268,7 +3270,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!G20
 +Index_Weights!$D$5*Index_OTVI!G20
 +Index_Weights!$D$6*Index_OTRI!G20)</f>
-        <v>-0.26487324170557291</v>
+        <v>-0.22473610577609804</v>
       </c>
       <c r="H20" s="10">
         <f>(
@@ -3277,7 +3279,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!H20
 +Index_Weights!$D$5*Index_OTVI!H20
 +Index_Weights!$D$6*Index_OTRI!H20)</f>
-        <v>0.11282066089500216</v>
+        <v>9.6180522884048866E-2</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
@@ -3300,7 +3302,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!C21
 +Index_Weights!$D$5*Index_OTVI!C21
 +Index_Weights!$D$6*Index_OTRI!C21)</f>
-        <v>-0.32351852723491936</v>
+        <v>-0.28940939969926571</v>
       </c>
       <c r="D21" s="10">
         <f>(
@@ -3309,7 +3311,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!D21
 +Index_Weights!$D$5*Index_OTVI!D21
 +Index_Weights!$D$6*Index_OTRI!D21)</f>
-        <v>0.90574890571430866</v>
+        <v>0.64138998199591546</v>
       </c>
       <c r="E21" s="10">
         <f>(
@@ -3318,7 +3320,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!E21
 +Index_Weights!$D$5*Index_OTVI!E21
 +Index_Weights!$D$6*Index_OTRI!E21)</f>
-        <v>0.25852447524839101</v>
+        <v>0.25198865545133303</v>
       </c>
       <c r="F21" s="10">
         <f>(
@@ -3327,7 +3329,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!F21
 +Index_Weights!$D$5*Index_OTVI!F21
 +Index_Weights!$D$6*Index_OTRI!F21)</f>
-        <v>-0.29950527424185935</v>
+        <v>-0.28840547470425826</v>
       </c>
       <c r="G21" s="10">
         <f>(
@@ -3336,7 +3338,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!G21
 +Index_Weights!$D$5*Index_OTVI!G21
 +Index_Weights!$D$6*Index_OTRI!G21)</f>
-        <v>-0.31367836975986485</v>
+        <v>-0.25597986117415372</v>
       </c>
       <c r="H21" s="10">
         <f>(
@@ -3345,7 +3347,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!H21
 +Index_Weights!$D$5*Index_OTVI!H21
 +Index_Weights!$D$6*Index_OTRI!H21)</f>
-        <v>0.31232122168441279</v>
+        <v>0.25146939326641438</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
@@ -3368,7 +3370,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!C22
 +Index_Weights!$D$5*Index_OTVI!C22
 +Index_Weights!$D$6*Index_OTRI!C22)</f>
-        <v>-0.36169197544517806</v>
+        <v>-0.3320632719274465</v>
       </c>
       <c r="D22" s="10">
         <f>(
@@ -3377,7 +3379,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!D22
 +Index_Weights!$D$5*Index_OTVI!D22
 +Index_Weights!$D$6*Index_OTRI!D22)</f>
-        <v>0.86333301903791648</v>
+        <v>0.62008768521558777</v>
       </c>
       <c r="E22" s="10">
         <f>(
@@ -3386,7 +3388,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!E22
 +Index_Weights!$D$5*Index_OTVI!E22
 +Index_Weights!$D$6*Index_OTRI!E22)</f>
-        <v>0.30033708154131955</v>
+        <v>0.26886728721883607</v>
       </c>
       <c r="F22" s="10">
         <f>(
@@ -3395,7 +3397,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!F22
 +Index_Weights!$D$5*Index_OTVI!F22
 +Index_Weights!$D$6*Index_OTRI!F22)</f>
-        <v>-0.32782087273798255</v>
+        <v>-0.30043238462140237</v>
       </c>
       <c r="G22" s="10">
         <f>(
@@ -3404,7 +3406,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!G22
 +Index_Weights!$D$5*Index_OTVI!G22
 +Index_Weights!$D$6*Index_OTRI!G22)</f>
-        <v>-0.2483828553356022</v>
+        <v>-0.20200727454375361</v>
       </c>
       <c r="H22" s="10">
         <f>(
@@ -3413,7 +3415,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!H22
 +Index_Weights!$D$5*Index_OTVI!H22
 +Index_Weights!$D$6*Index_OTRI!H22)</f>
-        <v>0.20045740014480171</v>
+        <v>0.15859377210982328</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
@@ -3430,7 +3432,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!C23
 +Index_Weights!$D$5*Index_OTVI!C23
 +Index_Weights!$D$6*Index_OTRI!C23)</f>
-        <v>-0.33932278633373325</v>
+        <v>-0.31854626113941464</v>
       </c>
       <c r="D23" s="10">
         <f>(
@@ -3439,7 +3441,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!D23
 +Index_Weights!$D$5*Index_OTVI!D23
 +Index_Weights!$D$6*Index_OTRI!D23)</f>
-        <v>0.31262706414364994</v>
+        <v>0.25332286959280648</v>
       </c>
       <c r="E23" s="10">
         <f>(
@@ -3448,7 +3450,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!E23
 +Index_Weights!$D$5*Index_OTVI!E23
 +Index_Weights!$D$6*Index_OTRI!E23)</f>
-        <v>0.25520614968193633</v>
+        <v>0.23618906608441542</v>
       </c>
       <c r="F23" s="10">
         <f>(
@@ -3457,7 +3459,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!F23
 +Index_Weights!$D$5*Index_OTVI!F23
 +Index_Weights!$D$6*Index_OTRI!F23)</f>
-        <v>-0.31904250153691577</v>
+        <v>-0.30114330288323088</v>
       </c>
       <c r="G23" s="10">
         <f>(
@@ -3466,7 +3468,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!G23
 +Index_Weights!$D$5*Index_OTVI!G23
 +Index_Weights!$D$6*Index_OTRI!G23)</f>
-        <v>-0.30578630442061427</v>
+        <v>-0.25187454398787112</v>
       </c>
       <c r="H23" s="10">
         <f>(
@@ -3475,7 +3477,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!H23
 +Index_Weights!$D$5*Index_OTVI!H23
 +Index_Weights!$D$6*Index_OTRI!H23)</f>
-        <v>0.11349627669546158</v>
+        <v>0.10193464944146785</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
@@ -3492,7 +3494,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!C24
 +Index_Weights!$D$5*Index_OTVI!C24
 +Index_Weights!$D$6*Index_OTRI!C24)</f>
-        <v>-0.34234306248975382</v>
+        <v>-0.31829556780309715</v>
       </c>
       <c r="D24" s="10">
         <f>(
@@ -3501,7 +3503,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!D24
 +Index_Weights!$D$5*Index_OTVI!D24
 +Index_Weights!$D$6*Index_OTRI!D24)</f>
-        <v>0.4867221782106072</v>
+        <v>0.3691807250386393</v>
       </c>
       <c r="E24" s="10">
         <f>(
@@ -3510,7 +3512,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!E24
 +Index_Weights!$D$5*Index_OTVI!E24
 +Index_Weights!$D$6*Index_OTRI!E24)</f>
-        <v>0.2550540114442349</v>
+        <v>0.23503279945473901</v>
       </c>
       <c r="F24" s="10">
         <f>(
@@ -3519,7 +3521,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!F24
 +Index_Weights!$D$5*Index_OTVI!F24
 +Index_Weights!$D$6*Index_OTRI!F24)</f>
-        <v>-0.31901813301375048</v>
+        <v>-0.29802973666234994</v>
       </c>
       <c r="G24" s="10">
         <f>(
@@ -3528,7 +3530,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!G24
 +Index_Weights!$D$5*Index_OTVI!G24
 +Index_Weights!$D$6*Index_OTRI!G24)</f>
-        <v>-0.25729974852457094</v>
+        <v>-0.21499096947637317</v>
       </c>
       <c r="H24" s="10">
         <f>(
@@ -3537,7 +3539,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!H24
 +Index_Weights!$D$5*Index_OTVI!H24
 +Index_Weights!$D$6*Index_OTRI!H24)</f>
-        <v>0.16431850949897758</v>
+        <v>0.13592665314297078</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
@@ -3554,7 +3556,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!C25
 +Index_Weights!$D$5*Index_OTVI!C25
 +Index_Weights!$D$6*Index_OTRI!C25)</f>
-        <v>-0.31294736010494428</v>
+        <v>-0.28273485094067557</v>
       </c>
       <c r="D25" s="10">
         <f>(
@@ -3563,7 +3565,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!D25
 +Index_Weights!$D$5*Index_OTVI!D25
 +Index_Weights!$D$6*Index_OTRI!D25)</f>
-        <v>0.70987484040300131</v>
+        <v>0.51301751700884268</v>
       </c>
       <c r="E25" s="10">
         <f>(
@@ -3572,7 +3574,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!E25
 +Index_Weights!$D$5*Index_OTVI!E25
 +Index_Weights!$D$6*Index_OTRI!E25)</f>
-        <v>0.37694336366580056</v>
+        <v>0.31142116776405415</v>
       </c>
       <c r="F25" s="10">
         <f>(
@@ -3581,7 +3583,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!F25
 +Index_Weights!$D$5*Index_OTVI!F25
 +Index_Weights!$D$6*Index_OTRI!F25)</f>
-        <v>-0.3544848671283819</v>
+        <v>-0.3193906257183915</v>
       </c>
       <c r="G25" s="10">
         <f>(
@@ -3590,7 +3592,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!G25
 +Index_Weights!$D$5*Index_OTVI!G25
 +Index_Weights!$D$6*Index_OTRI!G25)</f>
-        <v>-0.2484513936461672</v>
+        <v>-0.19972774607954186</v>
       </c>
       <c r="H25" s="10">
         <f>(
@@ -3599,7 +3601,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!H25
 +Index_Weights!$D$5*Index_OTVI!H25
 +Index_Weights!$D$6*Index_OTRI!H25)</f>
-        <v>0.41596662277397745</v>
+        <v>0.30687440913899089</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
@@ -3616,7 +3618,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!C26
 +Index_Weights!$D$5*Index_OTVI!C26
 +Index_Weights!$D$6*Index_OTRI!C26)</f>
-        <v>-0.35506099100390498</v>
+        <v>-0.32690565064652621</v>
       </c>
       <c r="D26" s="10">
         <f>(
@@ -3625,7 +3627,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!D26
 +Index_Weights!$D$5*Index_OTVI!D26
 +Index_Weights!$D$6*Index_OTRI!D26)</f>
-        <v>0.32819899701330374</v>
+        <v>0.25524370859609258</v>
       </c>
       <c r="E26" s="10">
         <f>(
@@ -3634,7 +3636,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!E26
 +Index_Weights!$D$5*Index_OTVI!E26
 +Index_Weights!$D$6*Index_OTRI!E26)</f>
-        <v>0.38279546925784891</v>
+        <v>0.32038904344958136</v>
       </c>
       <c r="F26" s="10">
         <f>(
@@ -3643,7 +3645,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!F26
 +Index_Weights!$D$5*Index_OTVI!F26
 +Index_Weights!$D$6*Index_OTRI!F26)</f>
-        <v>-0.29473003781713747</v>
+        <v>-0.27969460058742079</v>
       </c>
       <c r="G26" s="10">
         <f>(
@@ -3652,7 +3654,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!G26
 +Index_Weights!$D$5*Index_OTVI!G26
 +Index_Weights!$D$6*Index_OTRI!G26)</f>
-        <v>-0.28955283392688858</v>
+        <v>-0.2325315875554293</v>
       </c>
       <c r="H26" s="10">
         <f>(
@@ -3661,7 +3663,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!H26
 +Index_Weights!$D$5*Index_OTVI!H26
 +Index_Weights!$D$6*Index_OTRI!H26)</f>
-        <v>0.18722706476166195</v>
+        <v>0.15643470135199916</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
@@ -3678,7 +3680,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!C27
 +Index_Weights!$D$5*Index_OTVI!C27
 +Index_Weights!$D$6*Index_OTRI!C27)</f>
-        <v>-0.36143467884825181</v>
+        <v>-0.33320728432128865</v>
       </c>
       <c r="D27" s="10">
         <f>(
@@ -3687,7 +3689,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!D27
 +Index_Weights!$D$5*Index_OTVI!D27
 +Index_Weights!$D$6*Index_OTRI!D27)</f>
-        <v>0.60492793889101548</v>
+        <v>0.44508688973355603</v>
       </c>
       <c r="E27" s="10">
         <f>(
@@ -3696,7 +3698,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!E27
 +Index_Weights!$D$5*Index_OTVI!E27
 +Index_Weights!$D$6*Index_OTRI!E27)</f>
-        <v>0.3117214612221641</v>
+        <v>0.27754091656949476</v>
       </c>
       <c r="F27" s="10">
         <f>(
@@ -3705,7 +3707,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!F27
 +Index_Weights!$D$5*Index_OTVI!F27
 +Index_Weights!$D$6*Index_OTRI!F27)</f>
-        <v>-0.28263004017942406</v>
+        <v>-0.26649602911161319</v>
       </c>
       <c r="G27" s="10">
         <f>(
@@ -3714,7 +3716,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!G27
 +Index_Weights!$D$5*Index_OTVI!G27
 +Index_Weights!$D$6*Index_OTRI!G27)</f>
-        <v>-0.3007166363256551</v>
+        <v>-0.24524574916997721</v>
       </c>
       <c r="H27" s="10">
         <f>(
@@ -3723,7 +3725,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!H27
 +Index_Weights!$D$5*Index_OTVI!H27
 +Index_Weights!$D$6*Index_OTRI!H27)</f>
-        <v>0.129665484159422</v>
+        <v>0.1138934138170305</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
@@ -3740,7 +3742,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!C28
 +Index_Weights!$D$5*Index_OTVI!C28
 +Index_Weights!$D$6*Index_OTRI!C28)</f>
-        <v>-0.30044736621207679</v>
+        <v>-0.26859302679925023</v>
       </c>
       <c r="D28" s="10">
         <f>(
@@ -3749,7 +3751,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!D28
 +Index_Weights!$D$5*Index_OTVI!D28
 +Index_Weights!$D$6*Index_OTRI!D28)</f>
-        <v>0.68301104327612627</v>
+        <v>0.50227422162286783</v>
       </c>
       <c r="E28" s="10">
         <f>(
@@ -3758,7 +3760,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!E28
 +Index_Weights!$D$5*Index_OTVI!E28
 +Index_Weights!$D$6*Index_OTRI!E28)</f>
-        <v>0.32456847414891982</v>
+        <v>0.27849989902628952</v>
       </c>
       <c r="F28" s="10">
         <f>(
@@ -3767,7 +3769,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!F28
 +Index_Weights!$D$5*Index_OTVI!F28
 +Index_Weights!$D$6*Index_OTRI!F28)</f>
-        <v>-0.31528630092317556</v>
+        <v>-0.29526623652981193</v>
       </c>
       <c r="G28" s="10">
         <f>(
@@ -3776,7 +3778,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!G28
 +Index_Weights!$D$5*Index_OTVI!G28
 +Index_Weights!$D$6*Index_OTRI!G28)</f>
-        <v>-0.29938461857935933</v>
+        <v>-0.23950149420419248</v>
       </c>
       <c r="H28" s="10">
         <f>(
@@ -3785,7 +3787,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!H28
 +Index_Weights!$D$5*Index_OTVI!H28
 +Index_Weights!$D$6*Index_OTRI!H28)</f>
-        <v>0.16254823436689236</v>
+        <v>0.13811152930799123</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
@@ -3802,7 +3804,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!C29
 +Index_Weights!$D$5*Index_OTVI!C29
 +Index_Weights!$D$6*Index_OTRI!C29)</f>
-        <v>-0.32894817259289932</v>
+        <v>-0.3009117310583389</v>
       </c>
       <c r="D29" s="10">
         <f>(
@@ -3811,7 +3813,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!D29
 +Index_Weights!$D$5*Index_OTVI!D29
 +Index_Weights!$D$6*Index_OTRI!D29)</f>
-        <v>0.59057091373073289</v>
+        <v>0.43834054939175104</v>
       </c>
       <c r="E29" s="10">
         <f>(
@@ -3820,7 +3822,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!E29
 +Index_Weights!$D$5*Index_OTVI!E29
 +Index_Weights!$D$6*Index_OTRI!E29)</f>
-        <v>0.33003584357625704</v>
+        <v>0.28704484236137162</v>
       </c>
       <c r="F29" s="10">
         <f>(
@@ -3829,7 +3831,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!F29
 +Index_Weights!$D$5*Index_OTVI!F29
 +Index_Weights!$D$6*Index_OTRI!F29)</f>
-        <v>-0.26952108244198847</v>
+        <v>-0.25393386517331984</v>
       </c>
       <c r="G29" s="10">
         <f>(
@@ -3838,7 +3840,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!G29
 +Index_Weights!$D$5*Index_OTVI!G29
 +Index_Weights!$D$6*Index_OTRI!G29)</f>
-        <v>-0.29804116317108958</v>
+        <v>-0.24007005646349444</v>
       </c>
       <c r="H29" s="10">
         <f>(
@@ -3847,7 +3849,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!H29
 +Index_Weights!$D$5*Index_OTVI!H29
 +Index_Weights!$D$6*Index_OTRI!H29)</f>
-        <v>5.4850233520790499E-2</v>
+        <v>6.7717810510241838E-2</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
@@ -3864,7 +3866,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!C30
 +Index_Weights!$D$5*Index_OTVI!C30
 +Index_Weights!$D$6*Index_OTRI!C30)</f>
-        <v>-0.34666923304979946</v>
+        <v>-0.31730302310616643</v>
       </c>
       <c r="D30" s="10">
         <f>(
@@ -3873,7 +3875,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!D30
 +Index_Weights!$D$5*Index_OTVI!D30
 +Index_Weights!$D$6*Index_OTRI!D30)</f>
-        <v>0.71767593384387007</v>
+        <v>0.51325707408344101</v>
       </c>
       <c r="E30" s="10">
         <f>(
@@ -3882,7 +3884,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!E30
 +Index_Weights!$D$5*Index_OTVI!E30
 +Index_Weights!$D$6*Index_OTRI!E30)</f>
-        <v>0.31685492994144165</v>
+        <v>0.27511251726288011</v>
       </c>
       <c r="F30" s="10">
         <f>(
@@ -3891,7 +3893,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!F30
 +Index_Weights!$D$5*Index_OTVI!F30
 +Index_Weights!$D$6*Index_OTRI!F30)</f>
-        <v>-0.27778948051210783</v>
+        <v>-0.26240839458660614</v>
       </c>
       <c r="G30" s="10">
         <f>(
@@ -3900,7 +3902,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!G30
 +Index_Weights!$D$5*Index_OTVI!G30
 +Index_Weights!$D$6*Index_OTRI!G30)</f>
-        <v>-0.24316518392493469</v>
+        <v>-0.19846403631014997</v>
       </c>
       <c r="H30" s="10">
         <f>(
@@ -3909,7 +3911,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!H30
 +Index_Weights!$D$5*Index_OTVI!H30
 +Index_Weights!$D$6*Index_OTRI!H30)</f>
-        <v>0.1431317246140647</v>
+        <v>0.12951090640966267</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
@@ -3926,7 +3928,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!C31
 +Index_Weights!$D$5*Index_OTVI!C31
 +Index_Weights!$D$6*Index_OTRI!C31)</f>
-        <v>-0.37405344517481565</v>
+        <v>-0.34348365885116827</v>
       </c>
       <c r="D31" s="10">
         <f>(
@@ -3935,7 +3937,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!D31
 +Index_Weights!$D$5*Index_OTVI!D31
 +Index_Weights!$D$6*Index_OTRI!D31)</f>
-        <v>0.76934369131564306</v>
+        <v>0.55771275573481527</v>
       </c>
       <c r="E31" s="10">
         <f>(
@@ -3944,7 +3946,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!E31
 +Index_Weights!$D$5*Index_OTVI!E31
 +Index_Weights!$D$6*Index_OTRI!E31)</f>
-        <v>0.29832311651882032</v>
+        <v>0.26325698214361509</v>
       </c>
       <c r="F31" s="10">
         <f>(
@@ -3953,7 +3955,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!F31
 +Index_Weights!$D$5*Index_OTVI!F31
 +Index_Weights!$D$6*Index_OTRI!F31)</f>
-        <v>-0.32189337306010379</v>
+        <v>-0.29877314138837108</v>
       </c>
       <c r="G31" s="10">
         <f>(
@@ -3962,7 +3964,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!G31
 +Index_Weights!$D$5*Index_OTVI!G31
 +Index_Weights!$D$6*Index_OTRI!G31)</f>
-        <v>-0.30157295582457666</v>
+        <v>-0.24721444538405563</v>
       </c>
       <c r="H31" s="10">
         <f>(
@@ -3971,7 +3973,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!H31
 +Index_Weights!$D$5*Index_OTVI!H31
 +Index_Weights!$D$6*Index_OTRI!H31)</f>
-        <v>0.22008976219004803</v>
+        <v>0.1709805678643182</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
@@ -3988,7 +3990,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!C32
 +Index_Weights!$D$5*Index_OTVI!C32
 +Index_Weights!$D$6*Index_OTRI!C32)</f>
-        <v>-0.34635062073871309</v>
+        <v>-0.31488808649809114</v>
       </c>
       <c r="D32" s="10">
         <f>(
@@ -3997,7 +3999,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!D32
 +Index_Weights!$D$5*Index_OTVI!D32
 +Index_Weights!$D$6*Index_OTRI!D32)</f>
-        <v>1.0355776839764887</v>
+        <v>0.80591030311816148</v>
       </c>
       <c r="E32" s="10">
         <f>(
@@ -4006,7 +4008,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!E32
 +Index_Weights!$D$5*Index_OTVI!E32
 +Index_Weights!$D$6*Index_OTRI!E32)</f>
-        <v>0.32940109092404912</v>
+        <v>0.29723772417970395</v>
       </c>
       <c r="F32" s="10">
         <f>(
@@ -4015,7 +4017,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!F32
 +Index_Weights!$D$5*Index_OTVI!F32
 +Index_Weights!$D$6*Index_OTRI!F32)</f>
-        <v>-0.25067231811001284</v>
+        <v>-0.23029251454134161</v>
       </c>
       <c r="G32" s="10">
         <f>(
@@ -4024,7 +4026,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!G32
 +Index_Weights!$D$5*Index_OTVI!G32
 +Index_Weights!$D$6*Index_OTRI!G32)</f>
-        <v>-0.23841620266408453</v>
+        <v>-0.19574298581550509</v>
       </c>
       <c r="H32" s="10">
         <f>(
@@ -4033,7 +4035,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!H32
 +Index_Weights!$D$5*Index_OTVI!H32
 +Index_Weights!$D$6*Index_OTRI!H32)</f>
-        <v>0.13365204560255528</v>
+        <v>0.10406522068561447</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -4050,7 +4052,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!C33
 +Index_Weights!$D$5*Index_OTVI!C33
 +Index_Weights!$D$6*Index_OTRI!C33)</f>
-        <v>-0.30302215836771784</v>
+        <v>-0.29093834597106827</v>
       </c>
       <c r="D33" s="10">
         <f>(
@@ -4059,7 +4061,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!D33
 +Index_Weights!$D$5*Index_OTVI!D33
 +Index_Weights!$D$6*Index_OTRI!D33)</f>
-        <v>0.55511396445046379</v>
+        <v>0.41392366609365883</v>
       </c>
       <c r="E33" s="10">
         <f>(
@@ -4068,7 +4070,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!E33
 +Index_Weights!$D$5*Index_OTVI!E33
 +Index_Weights!$D$6*Index_OTRI!E33)</f>
-        <v>0.48496177127478801</v>
+        <v>0.40662613734328124</v>
       </c>
       <c r="F33" s="10">
         <f>(
@@ -4077,7 +4079,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!F33
 +Index_Weights!$D$5*Index_OTVI!F33
 +Index_Weights!$D$6*Index_OTRI!F33)</f>
-        <v>-0.32992120672521141</v>
+        <v>-0.30328766954265851</v>
       </c>
       <c r="G33" s="10">
         <f>(
@@ -4086,7 +4088,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!G33
 +Index_Weights!$D$5*Index_OTVI!G33
 +Index_Weights!$D$6*Index_OTRI!G33)</f>
-        <v>-0.29515218684361971</v>
+        <v>-0.24300153888031056</v>
       </c>
       <c r="H33" s="10">
         <f>(
@@ -4095,7 +4097,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!H33
 +Index_Weights!$D$5*Index_OTVI!H33
 +Index_Weights!$D$6*Index_OTRI!H33)</f>
-        <v>0.20578868800002578</v>
+        <v>0.17055244624293708</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -4112,7 +4114,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!C34
 +Index_Weights!$D$5*Index_OTVI!C34
 +Index_Weights!$D$6*Index_OTRI!C34)</f>
-        <v>-0.38168721910684211</v>
+        <v>-0.35339073132362642</v>
       </c>
       <c r="D34" s="10">
         <f>(
@@ -4121,7 +4123,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!D34
 +Index_Weights!$D$5*Index_OTVI!D34
 +Index_Weights!$D$6*Index_OTRI!D34)</f>
-        <v>0.34149807353357298</v>
+        <v>0.26378079658084475</v>
       </c>
       <c r="E34" s="10">
         <f>(
@@ -4130,7 +4132,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!E34
 +Index_Weights!$D$5*Index_OTVI!E34
 +Index_Weights!$D$6*Index_OTRI!E34)</f>
-        <v>0.33704863642120347</v>
+        <v>0.28596855931493959</v>
       </c>
       <c r="F34" s="10">
         <f>(
@@ -4139,7 +4141,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!F34
 +Index_Weights!$D$5*Index_OTVI!F34
 +Index_Weights!$D$6*Index_OTRI!F34)</f>
-        <v>-0.29033386887258306</v>
+        <v>-0.27515848987156971</v>
       </c>
       <c r="G34" s="10">
         <f>(
@@ -4148,7 +4150,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!G34
 +Index_Weights!$D$5*Index_OTVI!G34
 +Index_Weights!$D$6*Index_OTRI!G34)</f>
-        <v>-0.29789563849067391</v>
+        <v>-0.23896605630739709</v>
       </c>
       <c r="H34" s="10">
         <f>(
@@ -4157,7 +4159,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!H34
 +Index_Weights!$D$5*Index_OTVI!H34
 +Index_Weights!$D$6*Index_OTRI!H34)</f>
-        <v>0.17226296869724206</v>
+        <v>0.13761455836542888</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -4174,7 +4176,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!C35
 +Index_Weights!$D$5*Index_OTVI!C35
 +Index_Weights!$D$6*Index_OTRI!C35)</f>
-        <v>-0.23343486760479226</v>
+        <v>-0.21243590483498836</v>
       </c>
       <c r="D35" s="10">
         <f>(
@@ -4183,7 +4185,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!D35
 +Index_Weights!$D$5*Index_OTVI!D35
 +Index_Weights!$D$6*Index_OTRI!D35)</f>
-        <v>0.8382899003025206</v>
+        <v>0.60724332553770299</v>
       </c>
       <c r="E35" s="10">
         <f>(
@@ -4192,7 +4194,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!E35
 +Index_Weights!$D$5*Index_OTVI!E35
 +Index_Weights!$D$6*Index_OTRI!E35)</f>
-        <v>0.2032931768359188</v>
+        <v>0.20885061938674965</v>
       </c>
       <c r="F35" s="10">
         <f>(
@@ -4201,7 +4203,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!F35
 +Index_Weights!$D$5*Index_OTVI!F35
 +Index_Weights!$D$6*Index_OTRI!F35)</f>
-        <v>-0.31545251826000853</v>
+        <v>-0.28772756293926838</v>
       </c>
       <c r="G35" s="10">
         <f>(
@@ -4210,7 +4212,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!G35
 +Index_Weights!$D$5*Index_OTVI!G35
 +Index_Weights!$D$6*Index_OTRI!G35)</f>
-        <v>-0.20179984826433583</v>
+        <v>-0.14448463635432762</v>
       </c>
       <c r="H35" s="10">
         <f>(
@@ -4219,7 +4221,7 @@
 +Index_Weights!$D$4*Index_VCRPM1.USA!H35
 +Index_Weights!$D$5*Index_OTVI!H35
 +Index_Weights!$D$6*Index_OTRI!H35)</f>
-        <v>0.33172764799685517</v>
+        <v>0.2575261823723784</v>
       </c>
     </row>
   </sheetData>
@@ -4232,7 +4234,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5243,7 +5245,7 @@
         <v>88</v>
       </c>
       <c r="C32" s="10">
-        <f t="shared" ref="C32:H41" si="3">((AVERAGE(INDEX(_xldudf_SONAR_TICKER_RANGE("LMI","TPCP",DATE(C$1,1,1),DATE(C$1,12,31),FALSE),,2))-AVERAGE(INDEX(_xldudf_SONAR_TICKER_RANGE("LMI","TPCP",DATE(B$1,1,1),DATE(B$1,12,31),FALSE),,2)))/AVERAGE(INDEX(_xldudf_SONAR_TICKER_RANGE("LMI","TPCP",DATE(B$1,1,1),DATE(B$1,12,31),FALSE),,2)))</f>
+        <f t="shared" ref="C32:H35" si="3">((AVERAGE(INDEX(_xldudf_SONAR_TICKER_RANGE("LMI","TPCP",DATE(C$1,1,1),DATE(C$1,12,31),FALSE),,2))-AVERAGE(INDEX(_xldudf_SONAR_TICKER_RANGE("LMI","TPCP",DATE(B$1,1,1),DATE(B$1,12,31),FALSE),,2)))/AVERAGE(INDEX(_xldudf_SONAR_TICKER_RANGE("LMI","TPCP",DATE(B$1,1,1),DATE(B$1,12,31),FALSE),,2)))</f>
         <v>0.68467798186468254</v>
       </c>
       <c r="D32" s="10">
@@ -5373,7 +5375,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1048576"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6385,7 +6387,7 @@
         <v>88</v>
       </c>
       <c r="C32" s="10">
-        <f t="shared" ref="C32:H41" si="3">((AVERAGE(INDEX(_xldudf_SONAR_TICKER_RANGE("LMI","TPUT",DATE(C$1,1,1),DATE(C$1,12,31),FALSE),,2))-AVERAGE(INDEX(_xldudf_SONAR_TICKER_RANGE("LMI","TPUT",DATE(B$1,1,1),DATE(B$1,12,31),FALSE),,2)))/AVERAGE(INDEX(_xldudf_SONAR_TICKER_RANGE("LMI","TPUT",DATE(B$1,1,1),DATE(B$1,12,31),FALSE),,2)))</f>
+        <f t="shared" ref="C32:H35" si="3">((AVERAGE(INDEX(_xldudf_SONAR_TICKER_RANGE("LMI","TPUT",DATE(C$1,1,1),DATE(C$1,12,31),FALSE),,2))-AVERAGE(INDEX(_xldudf_SONAR_TICKER_RANGE("LMI","TPUT",DATE(B$1,1,1),DATE(B$1,12,31),FALSE),,2)))/AVERAGE(INDEX(_xldudf_SONAR_TICKER_RANGE("LMI","TPUT",DATE(B$1,1,1),DATE(B$1,12,31),FALSE),,2)))</f>
         <v>-0.20531367999636055</v>
       </c>
       <c r="D32" s="10">
@@ -6515,7 +6517,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7526,7 +7528,7 @@
         <v>88</v>
       </c>
       <c r="C32" s="10">
-        <f t="shared" ref="C32:H41" si="3">((AVERAGE(INDEX(_xldudf_SONAR_TICKER_RANGE("VCRPM1","USA",DATE(C$1,1,1),DATE(C$1,12,31),FALSE),,2))-AVERAGE(INDEX(_xldudf_SONAR_TICKER_RANGE("VCRPM1","USA",DATE(B$1,1,1),DATE(B$1,12,31),FALSE),,2)))/AVERAGE(INDEX(_xldudf_SONAR_TICKER_RANGE("VCRPM1","USA",DATE(B$1,1,1),DATE(B$1,12,31),FALSE),,2)))</f>
+        <f t="shared" ref="C32:H35" si="3">((AVERAGE(INDEX(_xldudf_SONAR_TICKER_RANGE("VCRPM1","USA",DATE(C$1,1,1),DATE(C$1,12,31),FALSE),,2))-AVERAGE(INDEX(_xldudf_SONAR_TICKER_RANGE("VCRPM1","USA",DATE(B$1,1,1),DATE(B$1,12,31),FALSE),,2)))/AVERAGE(INDEX(_xldudf_SONAR_TICKER_RANGE("VCRPM1","USA",DATE(B$1,1,1),DATE(B$1,12,31),FALSE),,2)))</f>
         <v>2.0862877713498087E-3</v>
       </c>
       <c r="D32" s="10">
@@ -8667,7 +8669,7 @@
         <v>88</v>
       </c>
       <c r="C32" s="10">
-        <f t="shared" ref="C32:H41" si="3">((AVERAGE(INDEX(_xldudf_SONAR_TICKER_RANGE("OTVI",$A32,DATE(C$1,1,1),DATE(C$1,12,31),FALSE),,2))-AVERAGE(INDEX(_xldudf_SONAR_TICKER_RANGE("OTVI",$A32,DATE(B$1,1,1),DATE(B$1,12,31),FALSE),,2)))/AVERAGE(INDEX(_xldudf_SONAR_TICKER_RANGE("OTVI",$A32,DATE(B$1,1,1),DATE(B$1,12,31),FALSE),,2)))</f>
+        <f t="shared" ref="C32:H35" si="3">((AVERAGE(INDEX(_xldudf_SONAR_TICKER_RANGE("OTVI",$A32,DATE(C$1,1,1),DATE(C$1,12,31),FALSE),,2))-AVERAGE(INDEX(_xldudf_SONAR_TICKER_RANGE("OTVI",$A32,DATE(B$1,1,1),DATE(B$1,12,31),FALSE),,2)))/AVERAGE(INDEX(_xldudf_SONAR_TICKER_RANGE("OTVI",$A32,DATE(B$1,1,1),DATE(B$1,12,31),FALSE),,2)))</f>
         <v>7.3086114935979038E-2</v>
       </c>
       <c r="D32" s="10">
@@ -9808,7 +9810,7 @@
         <v>88</v>
       </c>
       <c r="C32" s="10">
-        <f t="shared" ref="C32:H41" si="3">((AVERAGE(INDEX(_xldudf_SONAR_TICKER_RANGE("OTRI",$A32,DATE(C$1,1,1),DATE(C$1,12,31),FALSE),,2))-AVERAGE(INDEX(_xldudf_SONAR_TICKER_RANGE("OTRI",$A32,DATE(B$1,1,1),DATE(B$1,12,31),FALSE),,2)))/AVERAGE(INDEX(_xldudf_SONAR_TICKER_RANGE("OTRI",$A32,DATE(B$1,1,1),DATE(B$1,12,31),FALSE),,2)))</f>
+        <f t="shared" ref="C32:H35" si="3">((AVERAGE(INDEX(_xldudf_SONAR_TICKER_RANGE("OTRI",$A32,DATE(C$1,1,1),DATE(C$1,12,31),FALSE),,2))-AVERAGE(INDEX(_xldudf_SONAR_TICKER_RANGE("OTRI",$A32,DATE(B$1,1,1),DATE(B$1,12,31),FALSE),,2)))/AVERAGE(INDEX(_xldudf_SONAR_TICKER_RANGE("OTRI",$A32,DATE(B$1,1,1),DATE(B$1,12,31),FALSE),,2)))</f>
         <v>-0.7596211733367414</v>
       </c>
       <c r="D32" s="10">
